--- a/list.xlsx
+++ b/list.xlsx
@@ -1909,7 +1909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1928,19 +1928,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2226,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="G228" sqref="G228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2241,12 +2238,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2282,14 +2279,14 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>9095</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2470,35 +2467,35 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>9012</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>10799</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2602,34 +2599,34 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>13023</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>1260</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2711,58 +2708,58 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>10430</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>2609</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>1934</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>9613</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2899,13 +2896,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
@@ -3007,50 +3004,50 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="9" t="s">
+      <c r="C77" s="6"/>
+      <c r="D77" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="9" t="s">
+      <c r="C78" s="6"/>
+      <c r="D78" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="6"/>
+      <c r="D79" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="9" t="s">
+      <c r="C80" s="6"/>
+      <c r="D80" s="7" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3127,13 +3124,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
@@ -3264,21 +3261,21 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="9" t="s">
+      <c r="C110" s="6"/>
+      <c r="D110" s="7" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3307,21 +3304,21 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="10" t="s">
+      <c r="C116" s="6"/>
+      <c r="D116" s="8" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3582,21 +3579,21 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7" t="s">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="10" t="s">
+      <c r="C151" s="6"/>
+      <c r="D151" s="8" t="s">
         <v>545</v>
       </c>
     </row>
@@ -3776,23 +3773,23 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7" t="s">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="6">
         <v>1790</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="8" t="s">
         <v>535</v>
       </c>
     </row>
@@ -3909,22 +3906,22 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7" t="s">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="6">
         <v>10815</v>
       </c>
-      <c r="D187" s="9" t="str">
+      <c r="D187" s="7" t="str">
         <f>_xlfn.CONCAT($F$165,C187)</f>
         <v>https://www.acmicpc.net/problem/10815</v>
       </c>
@@ -4038,21 +4035,22 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B199" s="1" t="s">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="6">
         <v>11047</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="7" t="s">
         <v>546</v>
       </c>
     </row>
@@ -4064,7 +4062,7 @@
         <v>1931</v>
       </c>
       <c r="D200" s="5" t="str">
-        <f t="shared" ref="D199:D214" si="1">_xlfn.CONCAT($F$165,C200)</f>
+        <f t="shared" ref="D200:D214" si="1">_xlfn.CONCAT($F$165,C200)</f>
         <v>https://www.acmicpc.net/problem/1931</v>
       </c>
     </row>
@@ -4237,12 +4235,12 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B217" s="1" t="s">
@@ -4461,12 +4459,12 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B237" s="1" t="s">
@@ -4637,12 +4635,12 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B253" s="1" t="s">
@@ -4777,12 +4775,12 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
@@ -4893,12 +4891,12 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="8" t="s">
+      <c r="A277" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="8"/>
+      <c r="B277" s="9"/>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
@@ -5093,13 +5091,13 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="8" t="s">
+      <c r="A295" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
@@ -5186,12 +5184,12 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="8"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B305" s="1" t="s">
@@ -5355,12 +5353,12 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="8" t="s">
+      <c r="A320" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B320" s="8"/>
-      <c r="C320" s="8"/>
-      <c r="D320" s="8"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B321" s="1" t="s">
@@ -5399,12 +5397,12 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="8" t="s">
+      <c r="A325" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="B325" s="8"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="8"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="9"/>
+      <c r="D325" s="9"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B326" s="1" t="s">
@@ -5467,12 +5465,12 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="8" t="s">
+      <c r="A332" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="B332" s="8"/>
-      <c r="C332" s="8"/>
-      <c r="D332" s="8"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
+      <c r="D332" s="9"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
@@ -5643,12 +5641,12 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="8" t="s">
+      <c r="A349" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="B349" s="8"/>
-      <c r="C349" s="8"/>
-      <c r="D349" s="8"/>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
+      <c r="D349" s="9"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B350" s="1" t="s">
@@ -5880,12 +5878,12 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="8" t="s">
+      <c r="A373" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B373" s="8"/>
-      <c r="C373" s="8"/>
-      <c r="D373" s="8"/>
+      <c r="B373" s="9"/>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B374" s="1" t="s">
@@ -6056,12 +6054,12 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" s="8" t="s">
+      <c r="A389" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B389" s="8"/>
-      <c r="C389" s="8"/>
-      <c r="D389" s="8"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B390" s="1" t="s">
@@ -6280,12 +6278,12 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409" s="8" t="s">
+      <c r="A409" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="B409" s="8"/>
-      <c r="C409" s="8"/>
-      <c r="D409" s="8"/>
+      <c r="B409" s="9"/>
+      <c r="C409" s="9"/>
+      <c r="D409" s="9"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B410" s="1" t="s">
@@ -6481,11 +6479,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A373:D373"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A332:D332"/>
+    <mergeCell ref="A349:D349"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A295:E295"/>
+    <mergeCell ref="A304:D304"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A198:D198"/>
     <mergeCell ref="A216:D216"/>
@@ -6496,18 +6501,11 @@
     <mergeCell ref="A173:E173"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A295:E295"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A373:D373"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A332:D332"/>
-    <mergeCell ref="A349:D349"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A65:E65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1909,7 +1909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,6 +1935,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2221,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="G228" sqref="G228"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G235" sqref="G235:P240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2238,12 +2241,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2467,13 +2470,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
@@ -2599,12 +2602,12 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
@@ -2708,12 +2711,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
@@ -2896,13 +2899,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
@@ -3004,12 +3007,12 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
@@ -3124,13 +3127,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
@@ -3261,13 +3264,13 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
@@ -3304,13 +3307,13 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
@@ -3579,13 +3582,13 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
@@ -3773,13 +3776,13 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
@@ -3906,12 +3909,12 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
@@ -4035,12 +4038,12 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
@@ -4235,21 +4238,22 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B217" s="1" t="s">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="6">
         <v>2252</v>
       </c>
-      <c r="D217" s="5" t="str">
+      <c r="D217" s="7" t="str">
         <f t="shared" ref="D217:D234" si="2">_xlfn.CONCAT($F$165,C217)</f>
         <v>https://www.acmicpc.net/problem/2252</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>https://www.acmicpc.net/problem/1916</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
         <v>354</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>https://www.acmicpc.net/problem/11779</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
         <v>355</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>https://www.acmicpc.net/problem/1504</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
         <v>356</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>https://www.acmicpc.net/problem/1753</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
         <v>357</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>https://www.acmicpc.net/problem/11403</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
         <v>358</v>
       </c>
@@ -4398,7 +4402,7 @@
         <v>https://www.acmicpc.net/problem/11404</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
         <v>359</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>https://www.acmicpc.net/problem/11780</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
         <v>360</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>https://www.acmicpc.net/problem/1389</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
         <v>361</v>
       </c>
@@ -4434,7 +4438,7 @@
         <v>https://www.acmicpc.net/problem/1507</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
         <v>362</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>https://www.acmicpc.net/problem/1956</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B234" s="1" t="s">
         <v>351</v>
       </c>
@@ -4458,27 +4462,36 @@
         <v>https://www.acmicpc.net/problem/11657</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="9" t="s">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B237" s="1" t="s">
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="6">
         <v>2133</v>
       </c>
-      <c r="D237" s="5" t="str">
+      <c r="D237" s="7" t="str">
         <f t="shared" ref="D237:D250" si="3">_xlfn.CONCAT($F$165,C237)</f>
         <v>https://www.acmicpc.net/problem/2133</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
         <v>365</v>
       </c>
@@ -4489,8 +4502,10 @@
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/2098</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B239" s="1" t="s">
         <v>366</v>
       </c>
@@ -4501,8 +4516,10 @@
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1102</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
         <v>367</v>
       </c>
@@ -4513,6 +4530,8 @@
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1562</v>
       </c>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
@@ -4635,21 +4654,22 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B253" s="1" t="s">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="6">
         <v>3111</v>
       </c>
-      <c r="D253" s="5" t="str">
+      <c r="D253" s="7" t="str">
         <f t="shared" ref="D253:D263" si="4">_xlfn.CONCAT($F$165,C253)</f>
         <v>https://www.acmicpc.net/problem/3111</v>
       </c>
@@ -4775,12 +4795,12 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
@@ -4891,12 +4911,12 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
@@ -5091,13 +5111,13 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="9"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
@@ -5184,12 +5204,12 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="9" t="s">
+      <c r="A304" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9"/>
+      <c r="B304" s="10"/>
+      <c r="C304" s="10"/>
+      <c r="D304" s="10"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B305" s="1" t="s">
@@ -5353,12 +5373,12 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="9" t="s">
+      <c r="A320" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="9"/>
+      <c r="B320" s="10"/>
+      <c r="C320" s="10"/>
+      <c r="D320" s="10"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B321" s="1" t="s">
@@ -5397,12 +5417,12 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B325" s="9"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="9"/>
+      <c r="B325" s="10"/>
+      <c r="C325" s="10"/>
+      <c r="D325" s="10"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B326" s="1" t="s">
@@ -5465,12 +5485,12 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="9" t="s">
+      <c r="A332" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9"/>
-      <c r="D332" s="9"/>
+      <c r="B332" s="10"/>
+      <c r="C332" s="10"/>
+      <c r="D332" s="10"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
@@ -5641,12 +5661,12 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="9"/>
+      <c r="B349" s="10"/>
+      <c r="C349" s="10"/>
+      <c r="D349" s="10"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B350" s="1" t="s">
@@ -5878,12 +5898,12 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B373" s="9"/>
-      <c r="C373" s="9"/>
-      <c r="D373" s="9"/>
+      <c r="B373" s="10"/>
+      <c r="C373" s="10"/>
+      <c r="D373" s="10"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B374" s="1" t="s">
@@ -6054,12 +6074,12 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B389" s="9"/>
-      <c r="C389" s="9"/>
-      <c r="D389" s="9"/>
+      <c r="B389" s="10"/>
+      <c r="C389" s="10"/>
+      <c r="D389" s="10"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B390" s="1" t="s">
@@ -6278,12 +6298,12 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B409" s="9"/>
-      <c r="C409" s="9"/>
-      <c r="D409" s="9"/>
+      <c r="B409" s="10"/>
+      <c r="C409" s="10"/>
+      <c r="D409" s="10"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B410" s="1" t="s">

--- a/list.xlsx
+++ b/list.xlsx
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G235" sqref="G235:P240"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L418" sqref="L418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L418" sqref="L418"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H276" sqref="H276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4803,13 +4803,14 @@
       <c r="D265" s="10"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B266" s="1" t="s">
+      <c r="A266" s="6"/>
+      <c r="B266" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="6">
         <v>1948</v>
       </c>
-      <c r="D266" s="5" t="str">
+      <c r="D266" s="7" t="str">
         <f t="shared" ref="D266:D274" si="5">_xlfn.CONCAT($F$165,C266)</f>
         <v>https://www.acmicpc.net/problem/1948</v>
       </c>
@@ -4919,13 +4920,14 @@
       <c r="D277" s="10"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B278" s="1" t="s">
+      <c r="A278" s="6"/>
+      <c r="B278" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="6">
         <v>1629</v>
       </c>
-      <c r="D278" s="5" t="str">
+      <c r="D278" s="7" t="str">
         <f t="shared" ref="D278:D293" si="6">_xlfn.CONCAT($F$165,C278)</f>
         <v>https://www.acmicpc.net/problem/1629</v>
       </c>

--- a/list.xlsx
+++ b/list.xlsx
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H276" sqref="H276"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6501,18 +6501,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A373:D373"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A332:D332"/>
-    <mergeCell ref="A349:D349"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A295:E295"/>
-    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A198:D198"/>
     <mergeCell ref="A216:D216"/>
@@ -6523,11 +6516,18 @@
     <mergeCell ref="A173:E173"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A295:E295"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A373:D373"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A332:D332"/>
+    <mergeCell ref="A349:D349"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/list.xlsx
+++ b/list.xlsx
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D293" sqref="D293"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5122,13 +5122,14 @@
       <c r="E295" s="10"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B296" s="1" t="s">
+      <c r="A296" s="6"/>
+      <c r="B296" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296" s="6">
         <v>11659</v>
       </c>
-      <c r="D296" s="5" t="str">
+      <c r="D296" s="7" t="str">
         <f t="shared" ref="D296:D302" si="7">_xlfn.CONCAT($F$165,C296)</f>
         <v>https://www.acmicpc.net/problem/11659</v>
       </c>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1160,692 +1160,708 @@
     <t>선분과 점</t>
   </si>
   <si>
+    <t>숫자카드</t>
+  </si>
+  <si>
+    <t>숫자카드 2</t>
+  </si>
+  <si>
+    <t>배열 합치기</t>
+  </si>
+  <si>
+    <t>종이의 개수</t>
+  </si>
+  <si>
+    <t>하노이 탑 이동 순서</t>
+  </si>
+  <si>
+    <t>트리의 순회</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>사분면</t>
+  </si>
+  <si>
+    <t>버블 소트</t>
+  </si>
+  <si>
+    <t>가장 두꺼운 두 점</t>
+  </si>
+  <si>
+    <t>동전 0</t>
+  </si>
+  <si>
+    <t>회의실 배정</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>잃어버린 괄호</t>
+  </si>
+  <si>
+    <t>수 묶기</t>
+  </si>
+  <si>
+    <t>대회 or 인턴</t>
+  </si>
+  <si>
+    <t>병든 나이트</t>
+  </si>
+  <si>
+    <t>NMK</t>
+  </si>
+  <si>
+    <t>행렬</t>
+  </si>
+  <si>
+    <t>전구와 스위치</t>
+  </si>
+  <si>
+    <t>동전 뒤집기</t>
+  </si>
+  <si>
+    <t>롤러코스터</t>
+  </si>
+  <si>
+    <t>보석 도둑</t>
+  </si>
+  <si>
+    <t>가장 긴 증가하는 부분 수열 3</t>
+  </si>
+  <si>
+    <t>가장 긴 증가하는 부분 수열 2</t>
+  </si>
+  <si>
+    <t>줄 세우기</t>
+  </si>
+  <si>
+    <t>문제집</t>
+  </si>
+  <si>
+    <t>작업</t>
+  </si>
+  <si>
+    <t>네트워크 연결</t>
+  </si>
+  <si>
+    <t>최소 스패닝 트리</t>
+  </si>
+  <si>
+    <t>타임머신</t>
+  </si>
+  <si>
+    <t>웜홀</t>
+  </si>
+  <si>
+    <t>최소비용 구하기</t>
+  </si>
+  <si>
+    <t>최소비용 구하기 2</t>
+  </si>
+  <si>
+    <t>특정한 최단 경로</t>
+  </si>
+  <si>
+    <t>최단 경로</t>
+  </si>
+  <si>
+    <t>경로 찾기</t>
+  </si>
+  <si>
+    <t>플로이드</t>
+  </si>
+  <si>
+    <t>플로이드 2</t>
+  </si>
+  <si>
+    <t>케빈 베이컨의 6단계 법칙</t>
+  </si>
+  <si>
+    <t>궁금한 민호</t>
+  </si>
+  <si>
+    <t>운동</t>
+  </si>
+  <si>
+    <t>타일 채우기</t>
+  </si>
+  <si>
+    <t>외판원 순회</t>
+  </si>
+  <si>
+    <t>발전소</t>
+  </si>
+  <si>
+    <t>계단수</t>
+  </si>
+  <si>
+    <t>쉬운계단수</t>
+  </si>
+  <si>
+    <t>박성원</t>
+  </si>
+  <si>
+    <t>컨닝</t>
+  </si>
+  <si>
+    <t>격자판 채우기</t>
+  </si>
+  <si>
+    <t>두부장수 장홍준</t>
+  </si>
+  <si>
+    <t>4블럭</t>
+  </si>
+  <si>
+    <t>체스판</t>
+  </si>
+  <si>
+    <t>타일 놓기</t>
+  </si>
+  <si>
+    <t>타일 채우기 2</t>
+  </si>
+  <si>
+    <t>동민 수열</t>
+  </si>
+  <si>
+    <t>검열</t>
+  </si>
+  <si>
+    <t>문자열 폭발</t>
+  </si>
+  <si>
+    <t>히스토그램에서 가장 큰 직사각형</t>
+  </si>
+  <si>
+    <t>오아시스 재결합</t>
+  </si>
+  <si>
+    <t>집합의 표현</t>
+  </si>
+  <si>
+    <t>바이러스</t>
+  </si>
+  <si>
+    <t>최대 힙</t>
+  </si>
+  <si>
+    <t>최소 힙</t>
+  </si>
+  <si>
+    <t>가운데를 말해요</t>
+  </si>
+  <si>
+    <t>회사에 있는 사람</t>
+  </si>
+  <si>
+    <t>듣보잡</t>
+  </si>
+  <si>
+    <t>임계 경로</t>
+  </si>
+  <si>
+    <t>도로 포장</t>
+  </si>
+  <si>
+    <t>K번째 최단경로 찾기</t>
+  </si>
+  <si>
+    <t>길의 개수</t>
+  </si>
+  <si>
+    <t>두 가중치</t>
+  </si>
+  <si>
+    <t>일방통행</t>
+  </si>
+  <si>
+    <t>역사</t>
+  </si>
+  <si>
+    <t>도시 분할 계획</t>
+  </si>
+  <si>
+    <t>The game of death</t>
+  </si>
+  <si>
+    <t>곱셉</t>
+  </si>
+  <si>
+    <t>제곱 ㄴㄴ 수</t>
+  </si>
+  <si>
+    <t>행렬 덧셈</t>
+  </si>
+  <si>
+    <t>행렬 곱셈</t>
+  </si>
+  <si>
+    <t>행렬 제곱</t>
+  </si>
+  <si>
+    <t>피보나치 수</t>
+  </si>
+  <si>
+    <t>피보나치 수 2</t>
+  </si>
+  <si>
+    <t>피보나치 수 3</t>
+  </si>
+  <si>
+    <t>피보나치 수 6</t>
+  </si>
+  <si>
+    <t>이항 계수 1</t>
+  </si>
+  <si>
+    <t>이행 계수 2</t>
+  </si>
+  <si>
+    <t>이항 계수 4</t>
+  </si>
+  <si>
+    <t>이항 계수 5</t>
+  </si>
+  <si>
+    <t>괄호</t>
+  </si>
+  <si>
+    <t>GCD(n,k) = 1</t>
+  </si>
+  <si>
+    <t>이항 계수 3</t>
+  </si>
+  <si>
+    <t>구간 합 구하기 4</t>
+  </si>
+  <si>
+    <t>나머지 합</t>
+  </si>
+  <si>
+    <t>구간 합 구하기 5</t>
+  </si>
+  <si>
+    <t>구간 합 구하기</t>
+  </si>
+  <si>
+    <t>구간 합 구하기 2</t>
+  </si>
+  <si>
+    <t>스위치</t>
+  </si>
+  <si>
+    <t>구간 합 구하기 3</t>
+  </si>
+  <si>
+    <t>접미사 배열</t>
+  </si>
+  <si>
+    <t>접미사 배열 2</t>
+  </si>
+  <si>
+    <t>접미사 배열 1</t>
+  </si>
+  <si>
+    <t>서로 다른 부분 문자열의 개수</t>
+  </si>
+  <si>
+    <t>서로 다른 부분  문자열의 개수 2</t>
+  </si>
+  <si>
+    <t>Suffix Array</t>
+  </si>
+  <si>
+    <t>Cubeditor</t>
+  </si>
+  <si>
+    <t>공통 부분 문자열</t>
+  </si>
+  <si>
+    <t>Hidden Password</t>
+  </si>
+  <si>
+    <t>가장 긴 팰린드롬 부분 문자열</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>정점들의 거리</t>
+  </si>
+  <si>
+    <t>최소값</t>
+  </si>
+  <si>
+    <t>수열과 쿼리 17</t>
+  </si>
+  <si>
+    <t>최소값 찾기</t>
+  </si>
+  <si>
+    <t>접미사 배열2</t>
+  </si>
+  <si>
+    <t>LCA 2</t>
+  </si>
+  <si>
+    <t>도로 네트워크</t>
+  </si>
+  <si>
+    <t>LCA와 쿼리</t>
+  </si>
+  <si>
+    <t>최대 유량</t>
+  </si>
+  <si>
+    <t>열혈강호</t>
+  </si>
+  <si>
+    <t>열혈강호 2</t>
+  </si>
+  <si>
+    <t>열혈강호 3</t>
+  </si>
+  <si>
+    <t>열혈강호 4</t>
+  </si>
+  <si>
+    <t>축사 배정</t>
+  </si>
+  <si>
+    <t>노트북의 주인을 찾아서</t>
+  </si>
+  <si>
+    <t>소수 쌍</t>
+  </si>
+  <si>
+    <t>상어의 저녁식사</t>
+  </si>
+  <si>
+    <t>주차장</t>
+  </si>
+  <si>
+    <t>학교 가지마!</t>
+  </si>
+  <si>
+    <t>돌멩이 제거</t>
+  </si>
+  <si>
+    <t>게시판 구멍  막기</t>
+  </si>
+  <si>
+    <t>컨닝2</t>
+  </si>
+  <si>
+    <t>BOJ 거리</t>
+  </si>
+  <si>
+    <t>Acka</t>
+  </si>
+  <si>
+    <t>홍준이의 친위대</t>
+  </si>
+  <si>
+    <t>플레이리스트</t>
+  </si>
+  <si>
+    <t>좋아하는 배열</t>
+  </si>
+  <si>
+    <t>팰린드롬 분할</t>
+  </si>
+  <si>
+    <t>팰린드롬 경로</t>
+  </si>
+  <si>
+    <t>팰린드롬 보행</t>
+  </si>
+  <si>
+    <t>트라 나라</t>
+  </si>
+  <si>
+    <t>사다리 게임</t>
+  </si>
+  <si>
+    <t>데스노트</t>
+  </si>
+  <si>
+    <t>N-Rook 2</t>
+  </si>
+  <si>
+    <t>자물쇠</t>
+  </si>
+  <si>
+    <t>올바른 괄호 문자열</t>
+  </si>
+  <si>
+    <t>같은 탑</t>
+  </si>
+  <si>
+    <t>개근상</t>
+  </si>
+  <si>
+    <t>개근상 - 방법 1</t>
+  </si>
+  <si>
+    <t>개근상 - 방법 5</t>
+  </si>
+  <si>
+    <t>개근상 - 방법 4</t>
+  </si>
+  <si>
+    <t>개근상 - 방법 3</t>
+  </si>
+  <si>
+    <t>개근상 - 방법 2</t>
+  </si>
+  <si>
+    <t>돌 게임 2</t>
+  </si>
+  <si>
+    <t>돌 게임</t>
+  </si>
+  <si>
+    <t>돌 게임 3</t>
+  </si>
+  <si>
+    <t>돌 게임 5</t>
+  </si>
+  <si>
+    <t>돌 게임 4</t>
+  </si>
+  <si>
+    <t>돌 게임 6</t>
+  </si>
+  <si>
+    <t>돌 게임 7</t>
+  </si>
+  <si>
+    <t>돌 게임 8</t>
+  </si>
+  <si>
+    <t>박스 나누기 게임</t>
+  </si>
+  <si>
+    <t>님 게임 2</t>
+  </si>
+  <si>
+    <t>님블</t>
+  </si>
+  <si>
+    <t>님 게임 홀짝</t>
+  </si>
+  <si>
+    <t>님 게임 나누기</t>
+  </si>
+  <si>
+    <t>다각형 게임</t>
+  </si>
+  <si>
+    <t>책 구매하기</t>
+  </si>
+  <si>
+    <t>책 구매하기 2</t>
+  </si>
+  <si>
+    <t>책 구매하기 3</t>
+  </si>
+  <si>
+    <t>열혈강호 5</t>
+  </si>
+  <si>
+    <t>열혈강호 6</t>
+  </si>
+  <si>
+    <t>선발명단</t>
+  </si>
+  <si>
+    <t>최고의 팀 만들기</t>
+  </si>
+  <si>
+    <t>풍섭</t>
+  </si>
+  <si>
+    <t>경찰</t>
+  </si>
+  <si>
+    <t>왕복 여행</t>
+  </si>
+  <si>
+    <t>제독</t>
+  </si>
+  <si>
+    <t>Concert Hall Scheduling</t>
+  </si>
+  <si>
+    <t>Crazy Bits</t>
+  </si>
+  <si>
+    <t>Job Postings</t>
+  </si>
+  <si>
+    <t>제주도 관광</t>
+  </si>
+  <si>
+    <t>칙칙폭폭</t>
+  </si>
+  <si>
+    <t>Train Tickets</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t>등번호</t>
+  </si>
+  <si>
+    <t>N-Rook</t>
+  </si>
+  <si>
+    <t>비숍2</t>
+  </si>
+  <si>
+    <t>완전 중요한 간선</t>
+  </si>
+  <si>
+    <t>돼지 잡기</t>
+  </si>
+  <si>
+    <t>좀비 아포칼립스</t>
+  </si>
+  <si>
+    <t>스타 대결</t>
+  </si>
+  <si>
+    <t>No Smoking, Please</t>
+  </si>
+  <si>
+    <t>천하제일 게임 대회</t>
+  </si>
+  <si>
+    <t>도시 왕복하기</t>
+  </si>
+  <si>
+    <t>숫자판 만들기</t>
+  </si>
+  <si>
+    <t>틀렸습니다</t>
+  </si>
+  <si>
+    <t>블럭 퍼즐</t>
+  </si>
+  <si>
+    <t>체스판 2</t>
+  </si>
+  <si>
+    <t>달리기</t>
+  </si>
+  <si>
+    <t>빨간 선분 파란 선분</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1790</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1654</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2805</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2110</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/13397</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1939</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1981</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1300</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1561</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2902</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11047</t>
+  </si>
+  <si>
     <t>12) 분할 정복</t>
-  </si>
-  <si>
-    <t>숫자카드</t>
-  </si>
-  <si>
-    <t>숫자카드 2</t>
-  </si>
-  <si>
-    <t>배열 합치기</t>
-  </si>
-  <si>
-    <t>종이의 개수</t>
-  </si>
-  <si>
-    <t>하노이 탑 이동 순서</t>
-  </si>
-  <si>
-    <t>트리의 순회</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>사분면</t>
-  </si>
-  <si>
-    <t>버블 소트</t>
-  </si>
-  <si>
-    <t>가장 두꺼운 두 점</t>
-  </si>
-  <si>
-    <t>12) 그리디 알고리즘</t>
-  </si>
-  <si>
-    <t>동전 0</t>
-  </si>
-  <si>
-    <t>회의실 배정</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>잃어버린 괄호</t>
-  </si>
-  <si>
-    <t>수 묶기</t>
-  </si>
-  <si>
-    <t>대회 or 인턴</t>
-  </si>
-  <si>
-    <t>병든 나이트</t>
-  </si>
-  <si>
-    <t>NMK</t>
-  </si>
-  <si>
-    <t>행렬</t>
-  </si>
-  <si>
-    <t>전구와 스위치</t>
-  </si>
-  <si>
-    <t>동전 뒤집기</t>
-  </si>
-  <si>
-    <t>롤러코스터</t>
-  </si>
-  <si>
-    <t>보석 도둑</t>
-  </si>
-  <si>
-    <t>가장 긴 증가하는 부분 수열 3</t>
-  </si>
-  <si>
-    <t>가장 긴 증가하는 부분 수열 2</t>
-  </si>
-  <si>
-    <t>13) 그래프 2</t>
-  </si>
-  <si>
-    <t>줄 세우기</t>
-  </si>
-  <si>
-    <t>문제집</t>
-  </si>
-  <si>
-    <t>작업</t>
-  </si>
-  <si>
-    <t>네트워크 연결</t>
-  </si>
-  <si>
-    <t>최소 스패닝 트리</t>
-  </si>
-  <si>
-    <t>타임머신</t>
-  </si>
-  <si>
-    <t>웜홀</t>
-  </si>
-  <si>
-    <t>최소비용 구하기</t>
-  </si>
-  <si>
-    <t>최소비용 구하기 2</t>
-  </si>
-  <si>
-    <t>특정한 최단 경로</t>
-  </si>
-  <si>
-    <t>최단 경로</t>
-  </si>
-  <si>
-    <t>경로 찾기</t>
-  </si>
-  <si>
-    <t>플로이드</t>
-  </si>
-  <si>
-    <t>플로이드 2</t>
-  </si>
-  <si>
-    <t>케빈 베이컨의 6단계 법칙</t>
-  </si>
-  <si>
-    <t>궁금한 민호</t>
-  </si>
-  <si>
-    <t>운동</t>
-  </si>
-  <si>
-    <t>14) 다이나믹 프로그래밍 3</t>
-  </si>
-  <si>
-    <t>타일 채우기</t>
-  </si>
-  <si>
-    <t>외판원 순회</t>
-  </si>
-  <si>
-    <t>발전소</t>
-  </si>
-  <si>
-    <t>계단수</t>
-  </si>
-  <si>
-    <t>쉬운계단수</t>
-  </si>
-  <si>
-    <t>박성원</t>
-  </si>
-  <si>
-    <t>컨닝</t>
-  </si>
-  <si>
-    <t>격자판 채우기</t>
-  </si>
-  <si>
-    <t>두부장수 장홍준</t>
-  </si>
-  <si>
-    <t>4블럭</t>
-  </si>
-  <si>
-    <t>체스판</t>
-  </si>
-  <si>
-    <t>타일 놓기</t>
-  </si>
-  <si>
-    <t>타일 채우기 2</t>
-  </si>
-  <si>
-    <t>동민 수열</t>
-  </si>
-  <si>
-    <t>15) 자료구조 2</t>
-  </si>
-  <si>
-    <t>검열</t>
-  </si>
-  <si>
-    <t>문자열 폭발</t>
-  </si>
-  <si>
-    <t>히스토그램에서 가장 큰 직사각형</t>
-  </si>
-  <si>
-    <t>오아시스 재결합</t>
-  </si>
-  <si>
-    <t>집합의 표현</t>
-  </si>
-  <si>
-    <t>바이러스</t>
-  </si>
-  <si>
-    <t>최대 힙</t>
-  </si>
-  <si>
-    <t>최소 힙</t>
-  </si>
-  <si>
-    <t>가운데를 말해요</t>
-  </si>
-  <si>
-    <t>회사에 있는 사람</t>
-  </si>
-  <si>
-    <t>듣보잡</t>
-  </si>
-  <si>
-    <t>16) 그래프 2.5</t>
-  </si>
-  <si>
-    <t>임계 경로</t>
-  </si>
-  <si>
-    <t>도로 포장</t>
-  </si>
-  <si>
-    <t>K번째 최단경로 찾기</t>
-  </si>
-  <si>
-    <t>길의 개수</t>
-  </si>
-  <si>
-    <t>두 가중치</t>
-  </si>
-  <si>
-    <t>일방통행</t>
-  </si>
-  <si>
-    <t>역사</t>
-  </si>
-  <si>
-    <t>도시 분할 계획</t>
-  </si>
-  <si>
-    <t>The game of death</t>
-  </si>
-  <si>
-    <t>17) 수학 2</t>
-  </si>
-  <si>
-    <t>곱셉</t>
-  </si>
-  <si>
-    <t>제곱 ㄴㄴ 수</t>
-  </si>
-  <si>
-    <t>행렬 덧셈</t>
-  </si>
-  <si>
-    <t>행렬 곱셈</t>
-  </si>
-  <si>
-    <t>행렬 제곱</t>
-  </si>
-  <si>
-    <t>피보나치 수</t>
-  </si>
-  <si>
-    <t>피보나치 수 2</t>
-  </si>
-  <si>
-    <t>피보나치 수 3</t>
-  </si>
-  <si>
-    <t>피보나치 수 6</t>
-  </si>
-  <si>
-    <t>이항 계수 1</t>
-  </si>
-  <si>
-    <t>이행 계수 2</t>
-  </si>
-  <si>
-    <t>이항 계수 4</t>
-  </si>
-  <si>
-    <t>이항 계수 5</t>
-  </si>
-  <si>
-    <t>괄호</t>
-  </si>
-  <si>
-    <t>GCD(n,k) = 1</t>
-  </si>
-  <si>
-    <t>이항 계수 3</t>
-  </si>
-  <si>
-    <t>18) RSQ</t>
-  </si>
-  <si>
-    <t>구간 합 구하기 4</t>
-  </si>
-  <si>
-    <t>나머지 합</t>
-  </si>
-  <si>
-    <t>구간 합 구하기 5</t>
-  </si>
-  <si>
-    <t>구간 합 구하기</t>
-  </si>
-  <si>
-    <t>구간 합 구하기 2</t>
-  </si>
-  <si>
-    <t>스위치</t>
-  </si>
-  <si>
-    <t>구간 합 구하기 3</t>
-  </si>
-  <si>
-    <t>19) 문자열 2</t>
-  </si>
-  <si>
-    <t>접미사 배열</t>
-  </si>
-  <si>
-    <t>접미사 배열 2</t>
-  </si>
-  <si>
-    <t>접미사 배열 1</t>
-  </si>
-  <si>
-    <t>서로 다른 부분 문자열의 개수</t>
-  </si>
-  <si>
-    <t>서로 다른 부분  문자열의 개수 2</t>
-  </si>
-  <si>
-    <t>Suffix Array</t>
-  </si>
-  <si>
-    <t>Cubeditor</t>
-  </si>
-  <si>
-    <t>공통 부분 문자열</t>
-  </si>
-  <si>
-    <t>Hidden Password</t>
-  </si>
-  <si>
-    <t>가장 긴 팰린드롬 부분 문자열</t>
-  </si>
-  <si>
-    <t>LCA</t>
-  </si>
-  <si>
-    <t>정점들의 거리</t>
-  </si>
-  <si>
-    <t>20) RMQ</t>
-  </si>
-  <si>
-    <t>최소값</t>
-  </si>
-  <si>
-    <t>수열과 쿼리 17</t>
-  </si>
-  <si>
-    <t>최소값 찾기</t>
-  </si>
-  <si>
-    <t>접미사 배열2</t>
-  </si>
-  <si>
-    <t>21) Tree 2</t>
-  </si>
-  <si>
-    <t>LCA 2</t>
-  </si>
-  <si>
-    <t>도로 네트워크</t>
-  </si>
-  <si>
-    <t>LCA와 쿼리</t>
-  </si>
-  <si>
-    <t>22) 네트워크 플로우</t>
-  </si>
-  <si>
-    <t>최대 유량</t>
-  </si>
-  <si>
-    <t>열혈강호</t>
-  </si>
-  <si>
-    <t>열혈강호 2</t>
-  </si>
-  <si>
-    <t>열혈강호 3</t>
-  </si>
-  <si>
-    <t>열혈강호 4</t>
-  </si>
-  <si>
-    <t>축사 배정</t>
-  </si>
-  <si>
-    <t>노트북의 주인을 찾아서</t>
-  </si>
-  <si>
-    <t>소수 쌍</t>
-  </si>
-  <si>
-    <t>상어의 저녁식사</t>
-  </si>
-  <si>
-    <t>주차장</t>
-  </si>
-  <si>
-    <t>학교 가지마!</t>
-  </si>
-  <si>
-    <t>돌멩이 제거</t>
-  </si>
-  <si>
-    <t>게시판 구멍  막기</t>
-  </si>
-  <si>
-    <t>컨닝2</t>
-  </si>
-  <si>
-    <t>23) 다이나믹 프로그래밍 2.5</t>
-  </si>
-  <si>
-    <t>BOJ 거리</t>
-  </si>
-  <si>
-    <t>Acka</t>
-  </si>
-  <si>
-    <t>홍준이의 친위대</t>
-  </si>
-  <si>
-    <t>플레이리스트</t>
-  </si>
-  <si>
-    <t>좋아하는 배열</t>
-  </si>
-  <si>
-    <t>팰린드롬 분할</t>
-  </si>
-  <si>
-    <t>팰린드롬 경로</t>
-  </si>
-  <si>
-    <t>팰린드롬 보행</t>
-  </si>
-  <si>
-    <t>트라 나라</t>
-  </si>
-  <si>
-    <t>사다리 게임</t>
-  </si>
-  <si>
-    <t>데스노트</t>
-  </si>
-  <si>
-    <t>N-Rook 2</t>
-  </si>
-  <si>
-    <t>자물쇠</t>
-  </si>
-  <si>
-    <t>올바른 괄호 문자열</t>
-  </si>
-  <si>
-    <t>같은 탑</t>
-  </si>
-  <si>
-    <t>개근상</t>
-  </si>
-  <si>
-    <t>개근상 - 방법 1</t>
-  </si>
-  <si>
-    <t>개근상 - 방법 5</t>
-  </si>
-  <si>
-    <t>개근상 - 방법 4</t>
-  </si>
-  <si>
-    <t>개근상 - 방법 3</t>
-  </si>
-  <si>
-    <t>개근상 - 방법 2</t>
-  </si>
-  <si>
-    <t>24) 알고리즘 게임</t>
-  </si>
-  <si>
-    <t>돌 게임 2</t>
-  </si>
-  <si>
-    <t>돌 게임</t>
-  </si>
-  <si>
-    <t>돌 게임 3</t>
-  </si>
-  <si>
-    <t>돌 게임 5</t>
-  </si>
-  <si>
-    <t>돌 게임 4</t>
-  </si>
-  <si>
-    <t>돌 게임 6</t>
-  </si>
-  <si>
-    <t>돌 게임 7</t>
-  </si>
-  <si>
-    <t>돌 게임 8</t>
-  </si>
-  <si>
-    <t>박스 나누기 게임</t>
-  </si>
-  <si>
-    <t>님 게임 2</t>
-  </si>
-  <si>
-    <t>님블</t>
-  </si>
-  <si>
-    <t>님 게임 홀짝</t>
-  </si>
-  <si>
-    <t>님 게임 나누기</t>
-  </si>
-  <si>
-    <t>다각형 게임</t>
-  </si>
-  <si>
-    <t>25) MCMF</t>
-  </si>
-  <si>
-    <t>책 구매하기</t>
-  </si>
-  <si>
-    <t>책 구매하기 2</t>
-  </si>
-  <si>
-    <t>책 구매하기 3</t>
-  </si>
-  <si>
-    <t>열혈강호 5</t>
-  </si>
-  <si>
-    <t>열혈강호 6</t>
-  </si>
-  <si>
-    <t>선발명단</t>
-  </si>
-  <si>
-    <t>최고의 팀 만들기</t>
-  </si>
-  <si>
-    <t>풍섭</t>
-  </si>
-  <si>
-    <t>경찰</t>
-  </si>
-  <si>
-    <t>왕복 여행</t>
-  </si>
-  <si>
-    <t>제독</t>
-  </si>
-  <si>
-    <t>Concert Hall Scheduling</t>
-  </si>
-  <si>
-    <t>Crazy Bits</t>
-  </si>
-  <si>
-    <t>Job Postings</t>
-  </si>
-  <si>
-    <t>제주도 관광</t>
-  </si>
-  <si>
-    <t>칙칙폭폭</t>
-  </si>
-  <si>
-    <t>Train Tickets</t>
-  </si>
-  <si>
-    <t>Catering</t>
-  </si>
-  <si>
-    <t>26) 네트워크 플로우</t>
-  </si>
-  <si>
-    <t>등번호</t>
-  </si>
-  <si>
-    <t>N-Rook</t>
-  </si>
-  <si>
-    <t>비숍2</t>
-  </si>
-  <si>
-    <t>완전 중요한 간선</t>
-  </si>
-  <si>
-    <t>돼지 잡기</t>
-  </si>
-  <si>
-    <t>좀비 아포칼립스</t>
-  </si>
-  <si>
-    <t>스타 대결</t>
-  </si>
-  <si>
-    <t>No Smoking, Please</t>
-  </si>
-  <si>
-    <t>천하제일 게임 대회</t>
-  </si>
-  <si>
-    <t>도시 왕복하기</t>
-  </si>
-  <si>
-    <t>숫자판 만들기</t>
-  </si>
-  <si>
-    <t>틀렸습니다</t>
-  </si>
-  <si>
-    <t>블럭 퍼즐</t>
-  </si>
-  <si>
-    <t>체스판 2</t>
-  </si>
-  <si>
-    <t>달리기</t>
-  </si>
-  <si>
-    <t>빨간 선분 파란 선분</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1790</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1654</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2805</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2110</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/13397</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1939</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1981</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1300</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1561</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2902</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/11048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/11047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13) 그리디 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14) 그래프 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15) 다이나믹 프로그래밍 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16) 자료구조 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17) 그래프 2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18) 수학 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19) RSQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20) 문자열 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21) RMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22) Tree 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23) 네트워크 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24) 다이나믹 프로그래밍 2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25) 알고리즘 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) MCMF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27) 네트워크 플로우2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2226,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G291" sqref="G291"/>
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3148,7 +3164,7 @@
         <v>164</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3597,7 +3613,7 @@
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="8" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3793,7 +3809,7 @@
         <v>1790</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3804,7 +3820,7 @@
         <v>1654</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3815,7 +3831,7 @@
         <v>2805</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3826,7 +3842,7 @@
         <v>2110</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3837,7 +3853,7 @@
         <v>13397</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3848,7 +3864,7 @@
         <v>1939</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3859,7 +3875,7 @@
         <v>1981</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3870,7 +3886,7 @@
         <v>1300</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3881,7 +3897,7 @@
         <v>1561</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3910,7 +3926,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
-        <v>318</v>
+        <v>531</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -3919,7 +3935,7 @@
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C187" s="6">
         <v>10815</v>
@@ -3931,7 +3947,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C188" s="1">
         <v>10816</v>
@@ -3943,7 +3959,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C189" s="1">
         <v>11728</v>
@@ -3955,7 +3971,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C190" s="1">
         <v>1780</v>
@@ -3967,7 +3983,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C191" s="1">
         <v>11729</v>
@@ -3979,7 +3995,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C192" s="1">
         <v>2263</v>
@@ -3991,7 +4007,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C193" s="1">
         <v>1074</v>
@@ -4003,7 +4019,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C194" s="1">
         <v>1891</v>
@@ -4015,7 +4031,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C195" s="1">
         <v>1517</v>
@@ -4027,7 +4043,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C196" s="1">
         <v>2261</v>
@@ -4039,7 +4055,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
-        <v>329</v>
+        <v>532</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -4048,18 +4064,18 @@
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C199" s="6">
         <v>11047</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C200" s="1">
         <v>1931</v>
@@ -4071,7 +4087,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C201" s="1">
         <v>11399</v>
@@ -4083,7 +4099,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C202" s="1">
         <v>1541</v>
@@ -4095,7 +4111,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C203" s="1">
         <v>1744</v>
@@ -4107,7 +4123,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B204" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C204" s="1">
         <v>2875</v>
@@ -4131,7 +4147,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B206" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C206" s="1">
         <v>1783</v>
@@ -4143,7 +4159,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B207" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C207" s="1">
         <v>1201</v>
@@ -4155,7 +4171,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B208" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C208" s="1">
         <v>1080</v>
@@ -4167,7 +4183,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B209" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C209" s="1">
         <v>2138</v>
@@ -4179,7 +4195,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B210" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C210" s="1">
         <v>1285</v>
@@ -4191,7 +4207,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B211" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C211" s="1">
         <v>2873</v>
@@ -4203,7 +4219,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C212" s="1">
         <v>1202</v>
@@ -4215,7 +4231,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C213" s="1">
         <v>12738</v>
@@ -4227,7 +4243,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B214" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C214" s="1">
         <v>12015</v>
@@ -4239,7 +4255,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
-        <v>345</v>
+        <v>533</v>
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -4248,7 +4264,7 @@
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C217" s="6">
         <v>2252</v>
@@ -4260,7 +4276,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C218" s="1">
         <v>1766</v>
@@ -4272,7 +4288,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C219" s="1">
         <v>2056</v>
@@ -4284,7 +4300,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C220" s="1">
         <v>1922</v>
@@ -4296,7 +4312,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C221" s="1">
         <v>1197</v>
@@ -4308,7 +4324,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C222" s="1">
         <v>11657</v>
@@ -4320,7 +4336,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B223" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C223" s="1">
         <v>1865</v>
@@ -4332,7 +4348,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B224" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C224" s="1">
         <v>1916</v>
@@ -4344,7 +4360,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C225" s="1">
         <v>11779</v>
@@ -4356,7 +4372,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C226" s="1">
         <v>1504</v>
@@ -4368,7 +4384,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C227" s="1">
         <v>1753</v>
@@ -4380,7 +4396,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C228" s="1">
         <v>11403</v>
@@ -4392,7 +4408,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C229" s="1">
         <v>11404</v>
@@ -4404,7 +4420,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C230" s="1">
         <v>11780</v>
@@ -4416,7 +4432,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C231" s="1">
         <v>1389</v>
@@ -4428,7 +4444,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C232" s="1">
         <v>1507</v>
@@ -4440,7 +4456,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C233" s="1">
         <v>1956</v>
@@ -4452,7 +4468,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B234" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C234" s="1">
         <v>11657</v>
@@ -4468,7 +4484,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
-        <v>363</v>
+        <v>534</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -4479,7 +4495,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C237" s="6">
         <v>2133</v>
@@ -4493,7 +4509,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C238" s="1">
         <v>2098</v>
@@ -4507,7 +4523,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B239" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C239" s="1">
         <v>1102</v>
@@ -4521,7 +4537,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C240" s="1">
         <v>1562</v>
@@ -4535,7 +4551,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C241" s="1">
         <v>10844</v>
@@ -4547,7 +4563,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B242" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C242" s="1">
         <v>1086</v>
@@ -4559,7 +4575,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C243" s="1">
         <v>1014</v>
@@ -4571,7 +4587,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B244" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C244" s="1">
         <v>1648</v>
@@ -4583,7 +4599,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B245" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C245" s="1">
         <v>1657</v>
@@ -4595,7 +4611,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B246" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C246" s="1">
         <v>14389</v>
@@ -4607,7 +4623,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B247" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C247" s="1">
         <v>12960</v>
@@ -4619,7 +4635,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B248" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C248" s="1">
         <v>14390</v>
@@ -4631,7 +4647,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C249" s="1">
         <v>13976</v>
@@ -4643,7 +4659,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B250" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C250" s="1">
         <v>1529</v>
@@ -4655,7 +4671,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
-        <v>378</v>
+        <v>535</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -4664,7 +4680,7 @@
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C253" s="6">
         <v>3111</v>
@@ -4676,7 +4692,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B254" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C254" s="1">
         <v>9935</v>
@@ -4688,7 +4704,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B255" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C255" s="1">
         <v>6549</v>
@@ -4700,7 +4716,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B256" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C256" s="1">
         <v>3015</v>
@@ -4712,7 +4728,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B257" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C257" s="1">
         <v>1717</v>
@@ -4724,7 +4740,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C258" s="1">
         <v>2606</v>
@@ -4736,7 +4752,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B259" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C259" s="1">
         <v>11279</v>
@@ -4748,7 +4764,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C260" s="1">
         <v>1927</v>
@@ -4760,7 +4776,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B261" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C261" s="1">
         <v>1655</v>
@@ -4772,7 +4788,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C262" s="1">
         <v>7785</v>
@@ -4784,7 +4800,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C263" s="1">
         <v>1764</v>
@@ -4796,7 +4812,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
-        <v>390</v>
+        <v>536</v>
       </c>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -4805,7 +4821,7 @@
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C266" s="6">
         <v>1948</v>
@@ -4817,7 +4833,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C267" s="1">
         <v>1162</v>
@@ -4829,7 +4845,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C268" s="1">
         <v>1854</v>
@@ -4841,7 +4857,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C269" s="1">
         <v>1533</v>
@@ -4853,7 +4869,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C270" s="1">
         <v>12930</v>
@@ -4865,7 +4881,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C271" s="1">
         <v>1412</v>
@@ -4877,7 +4893,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B272" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C272" s="1">
         <v>1613</v>
@@ -4889,7 +4905,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B273" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C273" s="1">
         <v>1647</v>
@@ -4901,7 +4917,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B274" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C274" s="1">
         <v>2099</v>
@@ -4913,7 +4929,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="10" t="s">
-        <v>400</v>
+        <v>537</v>
       </c>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -4922,7 +4938,7 @@
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C278" s="6">
         <v>1629</v>
@@ -4934,7 +4950,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B279" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C279" s="1">
         <v>1016</v>
@@ -4946,7 +4962,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B280" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C280" s="1">
         <v>2738</v>
@@ -4958,7 +4974,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B281" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C281" s="1">
         <v>2740</v>
@@ -4970,7 +4986,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B282" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C282" s="1">
         <v>10830</v>
@@ -4982,7 +4998,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B283" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C283" s="1">
         <v>2747</v>
@@ -4994,7 +5010,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B284" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C284" s="1">
         <v>2748</v>
@@ -5006,7 +5022,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C285" s="1">
         <v>2749</v>
@@ -5018,7 +5034,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B286" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C286" s="1">
         <v>11444</v>
@@ -5030,7 +5046,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B287" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C287" s="1">
         <v>11050</v>
@@ -5042,7 +5058,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B288" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C288" s="1">
         <v>11051</v>
@@ -5054,7 +5070,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B289" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C289" s="1">
         <v>11402</v>
@@ -5066,7 +5082,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B290" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C290" s="1">
         <v>11439</v>
@@ -5078,7 +5094,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B291" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C291" s="1">
         <v>10422</v>
@@ -5090,7 +5106,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B292" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C292" s="1">
         <v>11689</v>
@@ -5102,7 +5118,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C293" s="1">
         <v>11401</v>
@@ -5114,7 +5130,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="10" t="s">
-        <v>417</v>
+        <v>538</v>
       </c>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
@@ -5124,7 +5140,7 @@
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="6" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C296" s="6">
         <v>11659</v>
@@ -5136,7 +5152,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C297" s="1">
         <v>10986</v>
@@ -5148,7 +5164,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B298" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C298" s="1">
         <v>11660</v>
@@ -5160,7 +5176,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B299" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C299" s="1">
         <v>2042</v>
@@ -5172,7 +5188,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B300" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C300" s="1">
         <v>10999</v>
@@ -5184,7 +5200,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B301" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C301" s="1">
         <v>1395</v>
@@ -5196,7 +5212,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C302" s="1">
         <v>11658</v>
@@ -5208,27 +5224,28 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
-        <v>425</v>
+        <v>539</v>
       </c>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B305" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C305" s="1">
+      <c r="A305" s="6"/>
+      <c r="B305" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C305" s="6">
         <v>11656</v>
       </c>
-      <c r="D305" s="5" t="str">
+      <c r="D305" s="7" t="str">
         <f t="shared" ref="D305:D318" si="8">_xlfn.CONCAT($F$165,C305)</f>
         <v>https://www.acmicpc.net/problem/11656</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C306" s="1">
         <v>13013</v>
@@ -5240,7 +5257,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B307" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C307" s="1">
         <v>13012</v>
@@ -5252,7 +5269,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B308" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C308" s="1">
         <v>11479</v>
@@ -5264,12 +5281,12 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B309" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B310" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C310" s="1">
         <v>13264</v>
@@ -5281,7 +5298,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B311" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C311" s="1">
         <v>9248</v>
@@ -5293,7 +5310,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B312" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C312" s="1">
         <v>1701</v>
@@ -5305,7 +5322,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B313" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C313" s="1">
         <v>5582</v>
@@ -5317,7 +5334,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B314" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C314" s="1">
         <v>3789</v>
@@ -5329,7 +5346,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B315" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C315" s="1">
         <v>13275</v>
@@ -5341,7 +5358,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B316" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C316" s="1">
         <v>11437</v>
@@ -5353,7 +5370,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B317" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C317" s="1">
         <v>1761</v>
@@ -5365,7 +5382,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B318" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C318" s="1">
         <v>13264</v>
@@ -5377,7 +5394,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="s">
-        <v>438</v>
+        <v>540</v>
       </c>
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
@@ -5385,7 +5402,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B321" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C321" s="1">
         <v>10868</v>
@@ -5397,7 +5414,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B322" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C322" s="1">
         <v>14438</v>
@@ -5409,7 +5426,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B323" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C323" s="1">
         <v>11003</v>
@@ -5421,7 +5438,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="s">
-        <v>443</v>
+        <v>541</v>
       </c>
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
@@ -5429,7 +5446,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B326" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C326" s="1">
         <v>11437</v>
@@ -5441,7 +5458,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B327" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C327" s="1">
         <v>1761</v>
@@ -5453,7 +5470,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B328" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C328" s="1">
         <v>11438</v>
@@ -5465,7 +5482,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B329" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C329" s="1">
         <v>3176</v>
@@ -5477,7 +5494,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B330" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C330" s="1">
         <v>15480</v>
@@ -5489,7 +5506,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
-        <v>447</v>
+        <v>542</v>
       </c>
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
@@ -5497,7 +5514,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C333" s="1">
         <v>6086</v>
@@ -5509,7 +5526,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B334" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C334" s="1">
         <v>11375</v>
@@ -5521,7 +5538,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B335" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C335" s="1">
         <v>11376</v>
@@ -5533,7 +5550,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B336" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C336" s="1">
         <v>11377</v>
@@ -5545,7 +5562,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B337" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C337" s="1">
         <v>11378</v>
@@ -5557,7 +5574,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B338" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C338" s="1">
         <v>2188</v>
@@ -5569,7 +5586,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B339" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C339" s="1">
         <v>1298</v>
@@ -5581,7 +5598,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B340" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C340" s="1">
         <v>1017</v>
@@ -5593,7 +5610,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B341" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C341" s="1">
         <v>1671</v>
@@ -5605,7 +5622,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B342" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C342" s="1">
         <v>1348</v>
@@ -5617,7 +5634,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B343" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C343" s="1">
         <v>1420</v>
@@ -5629,7 +5646,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B344" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C344" s="1">
         <v>1867</v>
@@ -5641,7 +5658,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B345" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C345" s="1">
         <v>2414</v>
@@ -5653,7 +5670,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B346" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C346" s="1">
         <v>11014</v>
@@ -5665,7 +5682,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="10" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
@@ -5673,7 +5690,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B350" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C350" s="1">
         <v>12026</v>
@@ -5685,7 +5702,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B351" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C351" s="1">
         <v>12996</v>
@@ -5697,7 +5714,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B352" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C352" s="1">
         <v>3949</v>
@@ -5709,7 +5726,7 @@
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B353" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C353" s="1">
         <v>12872</v>
@@ -5721,7 +5738,7 @@
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B354" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C354" s="1">
         <v>12911</v>
@@ -5733,7 +5750,7 @@
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B355" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C355" s="1">
         <v>1509</v>
@@ -5745,7 +5762,7 @@
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B356" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C356" s="1">
         <v>2172</v>
@@ -5757,7 +5774,7 @@
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B357" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C357" s="1">
         <v>12950</v>
@@ -5769,7 +5786,7 @@
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B358" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C358" s="1">
         <v>2718</v>
@@ -5781,7 +5798,7 @@
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B359" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C359" s="1">
         <v>12995</v>
@@ -5793,7 +5810,7 @@
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B360" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C360" s="1">
         <v>2008</v>
@@ -5805,7 +5822,7 @@
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B361" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C361" s="1">
         <v>2281</v>
@@ -5817,7 +5834,7 @@
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B362" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C362" s="1">
         <v>1767</v>
@@ -5829,7 +5846,7 @@
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B363" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C363" s="1">
         <v>1514</v>
@@ -5841,7 +5858,7 @@
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B364" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C364" s="1">
         <v>3012</v>
@@ -5853,7 +5870,7 @@
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B365" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C365" s="1">
         <v>1126</v>
@@ -5865,7 +5882,7 @@
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B366" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C366" s="1">
         <v>1563</v>
@@ -5877,32 +5894,32 @@
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B367" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B368" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B369" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B370" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B371" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="B373" s="10"/>
       <c r="C373" s="10"/>
@@ -5910,7 +5927,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B374" s="1" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C374" s="1">
         <v>9655</v>
@@ -5922,7 +5939,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B375" s="1" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C375" s="1">
         <v>9656</v>
@@ -5934,7 +5951,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B376" s="1" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C376" s="1">
         <v>9657</v>
@@ -5946,7 +5963,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B377" s="1" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C377" s="1">
         <v>9658</v>
@@ -5958,7 +5975,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B378" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C378" s="1">
         <v>9659</v>
@@ -5970,7 +5987,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B379" s="1" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C379" s="1">
         <v>9660</v>
@@ -5982,7 +5999,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B380" s="1" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C380" s="1">
         <v>9661</v>
@@ -5994,7 +6011,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B381" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C381" s="1">
         <v>9662</v>
@@ -6006,7 +6023,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B382" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C382" s="1">
         <v>11867</v>
@@ -6018,7 +6035,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B383" s="1" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="C383" s="1">
         <v>11868</v>
@@ -6030,7 +6047,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B384" s="1" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C384" s="1">
         <v>11869</v>
@@ -6042,7 +6059,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B385" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C385" s="1">
         <v>11871</v>
@@ -6054,7 +6071,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B386" s="1" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C386" s="1">
         <v>11872</v>
@@ -6066,7 +6083,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B387" s="1" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C387" s="1">
         <v>13034</v>
@@ -6078,7 +6095,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="10" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="B389" s="10"/>
       <c r="C389" s="10"/>
@@ -6086,7 +6103,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B390" s="1" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C390" s="1">
         <v>11405</v>
@@ -6098,7 +6115,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B391" s="1" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="C391" s="1">
         <v>11406</v>
@@ -6110,7 +6127,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B392" s="1" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C392" s="1">
         <v>11407</v>
@@ -6122,7 +6139,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B393" s="1" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C393" s="1">
         <v>11408</v>
@@ -6134,7 +6151,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B394" s="1" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C394" s="1">
         <v>11409</v>
@@ -6146,7 +6163,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B395" s="1" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C395" s="1">
         <v>3980</v>
@@ -6158,7 +6175,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B396" s="1" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C396" s="1">
         <v>1633</v>
@@ -6170,7 +6187,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B397" s="1" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C397" s="1">
         <v>4716</v>
@@ -6182,7 +6199,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B398" s="1" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C398" s="1">
         <v>1585</v>
@@ -6194,7 +6211,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B399" s="1" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C399" s="1">
         <v>2311</v>
@@ -6206,7 +6223,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B400" s="1" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C400" s="1">
         <v>3640</v>
@@ -6218,7 +6235,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B401" s="1" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C401" s="1">
         <v>3938</v>
@@ -6230,7 +6247,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B402" s="1" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C402" s="1">
         <v>6267</v>
@@ -6242,7 +6259,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B403" s="1" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C403" s="1">
         <v>7154</v>
@@ -6254,7 +6271,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B404" s="1" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C404" s="1">
         <v>9413</v>
@@ -6266,7 +6283,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B405" s="1" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C405" s="1">
         <v>11410</v>
@@ -6278,7 +6295,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B406" s="1" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C406" s="1">
         <v>11122</v>
@@ -6290,7 +6307,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B407" s="1" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C407" s="1">
         <v>10786</v>
@@ -6302,7 +6319,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="10" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="B409" s="10"/>
       <c r="C409" s="10"/>
@@ -6310,7 +6327,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B410" s="1" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C410" s="1">
         <v>1733</v>
@@ -6322,7 +6339,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B411" s="1" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C411" s="1">
         <v>1760</v>
@@ -6334,7 +6351,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B412" s="1" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C412" s="1">
         <v>2570</v>
@@ -6346,7 +6363,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B413" s="1" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="C413" s="1">
         <v>5651</v>
@@ -6358,7 +6375,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B414" s="1" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="C414" s="1">
         <v>1658</v>
@@ -6370,7 +6387,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B415" s="1" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="C415" s="1">
         <v>10319</v>
@@ -6382,7 +6399,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B416" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C416" s="1">
         <v>1031</v>
@@ -6394,7 +6411,7 @@
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B417" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="C417" s="1">
         <v>5406</v>
@@ -6406,7 +6423,7 @@
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B418" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C418" s="1">
         <v>5424</v>
@@ -6418,7 +6435,7 @@
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B419" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C419" s="1">
         <v>2316</v>
@@ -6430,7 +6447,7 @@
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B420" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C420" s="1">
         <v>2365</v>
@@ -6442,7 +6459,7 @@
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B421" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C421" s="1">
         <v>5389</v>
@@ -6454,7 +6471,7 @@
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B422" s="1" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C422" s="1">
         <v>12922</v>
@@ -6466,7 +6483,7 @@
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B423" s="1" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="C423" s="1">
         <v>12961</v>
@@ -6478,7 +6495,7 @@
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B424" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C424" s="1">
         <v>12963</v>
@@ -6490,7 +6507,7 @@
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B425" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C425" s="1">
         <v>12965</v>
@@ -6502,11 +6519,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A373:D373"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A332:D332"/>
+    <mergeCell ref="A349:D349"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A295:E295"/>
+    <mergeCell ref="A304:D304"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A198:D198"/>
     <mergeCell ref="A216:D216"/>
@@ -6517,18 +6541,11 @@
     <mergeCell ref="A173:E173"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A295:E295"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A373:D373"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A332:D332"/>
-    <mergeCell ref="A349:D349"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A65:E65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
